--- a/artfynd/A 32849-2023 artfynd.xlsx
+++ b/artfynd/A 32849-2023 artfynd.xlsx
@@ -3955,7 +3955,7 @@
         <v>130875604</v>
       </c>
       <c r="B32" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>130875484</v>
       </c>
       <c r="B33" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>130875510</v>
       </c>
       <c r="B34" t="n">
-        <v>58742</v>
+        <v>58746</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>130876157</v>
       </c>
       <c r="B35" t="n">
-        <v>97874</v>
+        <v>97878</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         <v>130882077</v>
       </c>
       <c r="B36" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>

--- a/artfynd/A 32849-2023 artfynd.xlsx
+++ b/artfynd/A 32849-2023 artfynd.xlsx
@@ -4277,7 +4277,7 @@
         <v>130876157</v>
       </c>
       <c r="B35" t="n">
-        <v>97878</v>
+        <v>97879</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>

--- a/artfynd/A 32849-2023 artfynd.xlsx
+++ b/artfynd/A 32849-2023 artfynd.xlsx
@@ -4277,7 +4277,7 @@
         <v>130876157</v>
       </c>
       <c r="B35" t="n">
-        <v>97879</v>
+        <v>97880</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
